--- a/setting/menu.xlsx
+++ b/setting/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="252">
   <si>
     <t>First level menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -995,6 +995,31 @@
   <si>
     <t>/html/body/div[4]/div[2]/div/div[4]/div[1]/span[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\setting\RKGL.xls</t>
+  </si>
+  <si>
+    <t>\setting\CLGL.xlsx</t>
+  </si>
+  <si>
+    <t>\setting\GLFF.xlsx</t>
+  </si>
+  <si>
+    <t>\setting\SQJW.xlsx</t>
+  </si>
+  <si>
+    <t>\setting\QWGL.xlsx</t>
+  </si>
+  <si>
+    <t>\setting\XTGL.xlsx</t>
+  </si>
+  <si>
+    <t>\setting\JYJXKH.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,10 +1399,11 @@
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1422,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1416,8 +1445,11 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1436,8 +1468,11 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1456,8 +1491,11 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1476,8 +1514,11 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1496,8 +1537,11 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1516,8 +1560,11 @@
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1536,8 +1583,11 @@
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1556,8 +1606,11 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1576,8 +1629,11 @@
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1596,8 +1652,11 @@
       <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1616,8 +1675,11 @@
       <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1636,8 +1698,11 @@
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1656,8 +1721,11 @@
       <c r="F14" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1676,8 +1744,11 @@
       <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1696,8 +1767,11 @@
       <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1716,8 +1790,11 @@
       <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1736,8 +1813,11 @@
       <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1756,8 +1836,11 @@
       <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1776,8 +1859,11 @@
       <c r="F20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1796,8 +1882,11 @@
       <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1816,8 +1905,11 @@
       <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1836,8 +1928,11 @@
       <c r="F23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -1856,8 +1951,11 @@
       <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -1876,8 +1974,11 @@
       <c r="F25" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1896,8 +1997,11 @@
       <c r="F26" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -1916,8 +2020,11 @@
       <c r="F27" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1936,8 +2043,11 @@
       <c r="F28" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1956,8 +2066,11 @@
       <c r="F29" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1976,8 +2089,11 @@
       <c r="F30" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1996,8 +2112,11 @@
       <c r="F31" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2016,8 +2135,11 @@
       <c r="F32" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -2036,8 +2158,11 @@
       <c r="F33" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>89</v>
       </c>
@@ -2056,8 +2181,11 @@
       <c r="F34" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -2076,8 +2204,11 @@
       <c r="F35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
@@ -2096,8 +2227,11 @@
       <c r="F36" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
@@ -2116,8 +2250,11 @@
       <c r="F37" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
@@ -2136,8 +2273,11 @@
       <c r="F38" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>101</v>
       </c>
@@ -2156,8 +2296,11 @@
       <c r="F39" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>101</v>
       </c>
@@ -2176,8 +2319,11 @@
       <c r="F40" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
@@ -2196,8 +2342,11 @@
       <c r="F41" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -2216,8 +2365,11 @@
       <c r="F42" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>101</v>
       </c>
@@ -2236,8 +2388,11 @@
       <c r="F43" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -2256,8 +2411,11 @@
       <c r="F44" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>101</v>
       </c>
@@ -2276,8 +2434,11 @@
       <c r="F45" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="F46" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>121</v>
       </c>
@@ -2316,8 +2480,11 @@
       <c r="F47" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
@@ -2336,8 +2503,11 @@
       <c r="F48" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
@@ -2356,8 +2526,11 @@
       <c r="F49" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>121</v>
       </c>
@@ -2376,8 +2549,11 @@
       <c r="F50" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>121</v>
       </c>
@@ -2396,8 +2572,11 @@
       <c r="F51" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>136</v>
       </c>
@@ -2416,8 +2595,11 @@
       <c r="F52" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>136</v>
       </c>
@@ -2436,8 +2618,11 @@
       <c r="F53" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>136</v>
       </c>
@@ -2456,8 +2641,11 @@
       <c r="F54" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>136</v>
       </c>
@@ -2476,8 +2664,11 @@
       <c r="F55" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>136</v>
       </c>
@@ -2496,8 +2687,11 @@
       <c r="F56" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>136</v>
       </c>
@@ -2516,8 +2710,11 @@
       <c r="F57" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>136</v>
       </c>
@@ -2536,8 +2733,11 @@
       <c r="F58" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>136</v>
       </c>
@@ -2556,8 +2756,11 @@
       <c r="F59" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>136</v>
       </c>
@@ -2576,8 +2779,11 @@
       <c r="F60" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
@@ -2596,8 +2802,11 @@
       <c r="F61" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>136</v>
       </c>
@@ -2616,8 +2825,11 @@
       <c r="F62" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -2636,8 +2848,11 @@
       <c r="F63" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>136</v>
       </c>
@@ -2656,8 +2871,11 @@
       <c r="F64" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>166</v>
       </c>
@@ -2676,8 +2894,11 @@
       <c r="F65" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>166</v>
       </c>
@@ -2696,8 +2917,11 @@
       <c r="F66" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
@@ -2716,8 +2940,11 @@
       <c r="F67" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>166</v>
       </c>
@@ -2736,8 +2963,11 @@
       <c r="F68" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>166</v>
       </c>
@@ -2756,8 +2986,11 @@
       <c r="F69" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>166</v>
       </c>
@@ -2776,8 +3009,11 @@
       <c r="F70" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>166</v>
       </c>
@@ -2796,8 +3032,11 @@
       <c r="F71" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>166</v>
       </c>
@@ -2816,8 +3055,11 @@
       <c r="F72" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>166</v>
       </c>
@@ -2836,8 +3078,11 @@
       <c r="F73" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>166</v>
       </c>
@@ -2856,8 +3101,11 @@
       <c r="F74" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
@@ -2876,8 +3124,11 @@
       <c r="F75" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>166</v>
       </c>
@@ -2896,8 +3147,11 @@
       <c r="F76" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>166</v>
       </c>
@@ -2916,8 +3170,11 @@
       <c r="F77" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>166</v>
       </c>
@@ -2936,8 +3193,11 @@
       <c r="F78" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>166</v>
       </c>
@@ -2956,8 +3216,11 @@
       <c r="F79" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
@@ -2976,8 +3239,11 @@
       <c r="F80" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>231</v>
       </c>
@@ -2996,8 +3262,11 @@
       <c r="F81" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>231</v>
       </c>
@@ -3015,6 +3284,9 @@
       </c>
       <c r="F82" s="2" t="s">
         <v>241</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3027,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
